--- a/data_and_results/monthly data/2099.02.xlsx
+++ b/data_and_results/monthly data/2099.02.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="02" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0">
+    <comment ref="K11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0">
+    <comment ref="L11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,367 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0">
+    <comment ref="M11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+opłata rekrutacyjna</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+masarnia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+media</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+chusteczki do nosa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+przejazdy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+spotify</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+basen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+podstawka pod laptopa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+marynarka</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+obiady</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+meble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+uber</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+hbo go</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+herbaciarnia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+piekarnia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -284,11 +644,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-opłata rekrutacyjna</t>
+hotel</t>
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,11 +668,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-masarnia</t>
+warzywniak</t>
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,371 +692,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-media</t>
+market</t>
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-chusteczki do nosa</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-przejazdy</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-spotify</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-basen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-podstawka pod laptopa</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-marynarka</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-obiady</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-meble</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-uber</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-hbo go</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-herbaciarnia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-piekarnia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-hotel</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-warzywniak</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-market</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +725,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Jedzenie</t>
   </si>
@@ -763,9 +763,6 @@
     <t>Przychody:</t>
   </si>
   <si>
-    <t>Papiernicze i biurowe</t>
-  </si>
-  <si>
     <t>Procent [%]</t>
   </si>
   <si>
@@ -779,9 +776,6 @@
   </si>
   <si>
     <t>Transport i noclegi</t>
-  </si>
-  <si>
-    <t>Kultura</t>
   </si>
   <si>
     <t>Prez/don:</t>
@@ -811,8 +805,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1491,43 +1485,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30">
         <f>E1-A9</f>
@@ -1552,9 +1546,9 @@
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1">
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="31">
         <f>E2-A9</f>
@@ -1562,7 +1556,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -1595,15 +1589,15 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -1626,7 +1620,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1">
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="4"/>
@@ -1651,18 +1645,18 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1688,18 +1682,18 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="B6" s="28">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>1202</v>
+        <v>1137</v>
       </c>
       <c r="C6" s="28">
         <f>SUM(M9)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D6" s="32">
         <v>900</v>
@@ -1728,7 +1722,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1">
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1744,9 +1738,9 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -1758,7 +1752,7 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>5.2483598875351456</v>
+        <v>5.7169634489222121</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
@@ -1794,15 +1788,15 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5620118712902218</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0.46860356138706655</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
-        <v>1.5620118712902218</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
@@ -1825,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1">
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
         <v>3201</v>
@@ -1840,7 +1834,7 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="1"/>
@@ -1875,16 +1869,16 @@
         <v>90</v>
       </c>
       <c r="M9" s="16">
+        <f>SUM(M11:M706)</f>
+        <v>50</v>
+      </c>
+      <c r="N9" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
@@ -1907,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1918,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -1933,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -1945,23 +1939,18 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1994,20 +1983,18 @@
       <c r="L11" s="18">
         <v>90</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18">
-        <v>15</v>
-      </c>
-      <c r="O11" s="18">
+      <c r="M11" s="18">
         <v>50</v>
       </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -2047,7 +2034,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -2081,7 +2068,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -2089,7 +2076,9 @@
         <v>75</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18">
+        <v>15</v>
+      </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18">
         <v>80</v>
@@ -2109,7 +2098,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>5</v>
       </c>
@@ -2135,7 +2124,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>6</v>
       </c>
@@ -2161,7 +2150,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>7</v>
       </c>
@@ -2187,7 +2176,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>8</v>
       </c>
@@ -2211,7 +2200,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>9</v>
       </c>
@@ -2235,7 +2224,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>10</v>
       </c>
@@ -2259,7 +2248,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>11</v>
       </c>
@@ -2283,7 +2272,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>12</v>
       </c>
@@ -2307,7 +2296,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>13</v>
       </c>
@@ -2331,7 +2320,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>14</v>
       </c>
@@ -2355,7 +2344,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>15</v>
       </c>
@@ -2379,7 +2368,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>16</v>
       </c>
@@ -2403,7 +2392,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>17</v>
       </c>
@@ -2427,7 +2416,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>18</v>
       </c>
@@ -2451,7 +2440,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>19</v>
       </c>
@@ -2475,7 +2464,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>20</v>
       </c>
@@ -2499,7 +2488,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>21</v>
       </c>
@@ -2523,7 +2512,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>22</v>
       </c>
@@ -2547,7 +2536,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>23</v>
       </c>
@@ -2571,7 +2560,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>24</v>
       </c>
@@ -2595,7 +2584,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>25</v>
       </c>
@@ -2619,7 +2608,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>26</v>
       </c>
@@ -2643,7 +2632,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>27</v>
       </c>
@@ -2667,7 +2656,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>28</v>
       </c>
@@ -2691,7 +2680,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>29</v>
       </c>
@@ -2715,7 +2704,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>30</v>
       </c>
@@ -2739,7 +2728,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>31</v>
       </c>
@@ -2763,7 +2752,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>32</v>
       </c>
@@ -2787,7 +2776,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>33</v>
       </c>
@@ -2811,7 +2800,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>34</v>
       </c>
@@ -2835,7 +2824,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>35</v>
       </c>
@@ -2859,7 +2848,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>36</v>
       </c>
@@ -2883,7 +2872,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>37</v>
       </c>
@@ -2907,7 +2896,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>38</v>
       </c>
@@ -2931,7 +2920,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>39</v>
       </c>
@@ -2955,7 +2944,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>40</v>
       </c>
@@ -2979,7 +2968,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>41</v>
       </c>
@@ -3003,7 +2992,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>42</v>
       </c>
@@ -3027,7 +3016,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>43</v>
       </c>
@@ -3051,7 +3040,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>44</v>
       </c>
@@ -3075,7 +3064,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>45</v>
       </c>
@@ -3099,7 +3088,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>46</v>
       </c>
@@ -3123,7 +3112,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>47</v>
       </c>
@@ -3147,7 +3136,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>48</v>
       </c>
@@ -3171,7 +3160,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>49</v>
       </c>
@@ -3195,7 +3184,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="18"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>50</v>
       </c>
@@ -3219,7 +3208,7 @@
       <c r="S60" s="18"/>
       <c r="T60" s="18"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>51</v>
       </c>
@@ -3243,7 +3232,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>52</v>
       </c>
@@ -3267,7 +3256,7 @@
       <c r="S62" s="18"/>
       <c r="T62" s="18"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>53</v>
       </c>
@@ -3291,7 +3280,7 @@
       <c r="S63" s="18"/>
       <c r="T63" s="18"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>54</v>
       </c>
@@ -3315,7 +3304,7 @@
       <c r="S64" s="18"/>
       <c r="T64" s="18"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>55</v>
       </c>
@@ -3339,7 +3328,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>56</v>
       </c>
@@ -3363,7 +3352,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="18"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>57</v>
       </c>
@@ -3387,7 +3376,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="18"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>58</v>
       </c>
@@ -3411,7 +3400,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="18"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>59</v>
       </c>
@@ -3435,7 +3424,7 @@
       <c r="S69" s="18"/>
       <c r="T69" s="18"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>60</v>
       </c>
@@ -3459,7 +3448,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="18"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>61</v>
       </c>
@@ -3483,7 +3472,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>62</v>
       </c>
@@ -3507,7 +3496,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="18"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>63</v>
       </c>
@@ -3531,7 +3520,7 @@
       <c r="S73" s="18"/>
       <c r="T73" s="18"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>64</v>
       </c>
@@ -3555,7 +3544,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="18"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>65</v>
       </c>
@@ -3579,7 +3568,7 @@
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>66</v>
       </c>
@@ -3603,7 +3592,7 @@
       <c r="S76" s="18"/>
       <c r="T76" s="18"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>67</v>
       </c>
@@ -3627,7 +3616,7 @@
       <c r="S77" s="18"/>
       <c r="T77" s="18"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>68</v>
       </c>
@@ -3651,7 +3640,7 @@
       <c r="S78" s="18"/>
       <c r="T78" s="18"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>69</v>
       </c>
@@ -3675,7 +3664,7 @@
       <c r="S79" s="18"/>
       <c r="T79" s="18"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>70</v>
       </c>
@@ -3699,7 +3688,7 @@
       <c r="S80" s="18"/>
       <c r="T80" s="18"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>71</v>
       </c>
@@ -3723,7 +3712,7 @@
       <c r="S81" s="18"/>
       <c r="T81" s="18"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>72</v>
       </c>
@@ -3747,7 +3736,7 @@
       <c r="S82" s="18"/>
       <c r="T82" s="18"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>73</v>
       </c>
@@ -3771,7 +3760,7 @@
       <c r="S83" s="18"/>
       <c r="T83" s="18"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>74</v>
       </c>
@@ -3795,7 +3784,7 @@
       <c r="S84" s="18"/>
       <c r="T84" s="18"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>75</v>
       </c>
@@ -3819,7 +3808,7 @@
       <c r="S85" s="18"/>
       <c r="T85" s="18"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>76</v>
       </c>
@@ -3843,7 +3832,7 @@
       <c r="S86" s="18"/>
       <c r="T86" s="18"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>77</v>
       </c>
@@ -3867,7 +3856,7 @@
       <c r="S87" s="18"/>
       <c r="T87" s="18"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>78</v>
       </c>
@@ -3891,7 +3880,7 @@
       <c r="S88" s="18"/>
       <c r="T88" s="18"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>79</v>
       </c>
@@ -3915,7 +3904,7 @@
       <c r="S89" s="18"/>
       <c r="T89" s="18"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>80</v>
       </c>
@@ -3939,7 +3928,7 @@
       <c r="S90" s="18"/>
       <c r="T90" s="18"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>81</v>
       </c>
@@ -3963,7 +3952,7 @@
       <c r="S91" s="18"/>
       <c r="T91" s="18"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>82</v>
       </c>
@@ -3987,7 +3976,7 @@
       <c r="S92" s="18"/>
       <c r="T92" s="18"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>83</v>
       </c>
@@ -4011,7 +4000,7 @@
       <c r="S93" s="18"/>
       <c r="T93" s="18"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>84</v>
       </c>
@@ -4035,7 +4024,7 @@
       <c r="S94" s="18"/>
       <c r="T94" s="18"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>85</v>
       </c>
@@ -4059,7 +4048,7 @@
       <c r="S95" s="18"/>
       <c r="T95" s="18"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>86</v>
       </c>
@@ -4083,7 +4072,7 @@
       <c r="S96" s="18"/>
       <c r="T96" s="18"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>87</v>
       </c>
@@ -4107,7 +4096,7 @@
       <c r="S97" s="18"/>
       <c r="T97" s="18"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>88</v>
       </c>
@@ -4131,7 +4120,7 @@
       <c r="S98" s="18"/>
       <c r="T98" s="18"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>89</v>
       </c>
@@ -4155,7 +4144,7 @@
       <c r="S99" s="18"/>
       <c r="T99" s="18"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>90</v>
       </c>
@@ -4179,7 +4168,7 @@
       <c r="S100" s="18"/>
       <c r="T100" s="18"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>91</v>
       </c>
@@ -4203,7 +4192,7 @@
       <c r="S101" s="18"/>
       <c r="T101" s="18"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>92</v>
       </c>
@@ -4227,7 +4216,7 @@
       <c r="S102" s="18"/>
       <c r="T102" s="18"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>93</v>
       </c>
@@ -4251,7 +4240,7 @@
       <c r="S103" s="18"/>
       <c r="T103" s="18"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>94</v>
       </c>
@@ -4275,7 +4264,7 @@
       <c r="S104" s="18"/>
       <c r="T104" s="18"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>95</v>
       </c>
@@ -4299,7 +4288,7 @@
       <c r="S105" s="18"/>
       <c r="T105" s="18"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>96</v>
       </c>
@@ -4323,7 +4312,7 @@
       <c r="S106" s="18"/>
       <c r="T106" s="18"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>97</v>
       </c>
@@ -4347,7 +4336,7 @@
       <c r="S107" s="18"/>
       <c r="T107" s="18"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>98</v>
       </c>
@@ -4371,7 +4360,7 @@
       <c r="S108" s="18"/>
       <c r="T108" s="18"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>99</v>
       </c>
@@ -4395,7 +4384,7 @@
       <c r="S109" s="18"/>
       <c r="T109" s="18"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>100</v>
       </c>
@@ -4419,7 +4408,7 @@
       <c r="S110" s="18"/>
       <c r="T110" s="18"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
@@ -4440,7 +4429,7 @@
       <c r="S111" s="18"/>
       <c r="T111" s="18"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
@@ -4461,7 +4450,7 @@
       <c r="S112" s="18"/>
       <c r="T112" s="18"/>
     </row>
-    <row r="113" spans="2:20">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
@@ -4482,7 +4471,7 @@
       <c r="S113" s="18"/>
       <c r="T113" s="18"/>
     </row>
-    <row r="114" spans="2:20">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -4503,7 +4492,7 @@
       <c r="S114" s="18"/>
       <c r="T114" s="18"/>
     </row>
-    <row r="115" spans="2:20">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -4524,7 +4513,7 @@
       <c r="S115" s="18"/>
       <c r="T115" s="18"/>
     </row>
-    <row r="116" spans="2:20">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
@@ -4545,7 +4534,7 @@
       <c r="S116" s="18"/>
       <c r="T116" s="18"/>
     </row>
-    <row r="117" spans="2:20">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -4566,7 +4555,7 @@
       <c r="S117" s="18"/>
       <c r="T117" s="18"/>
     </row>
-    <row r="118" spans="2:20">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
@@ -4587,7 +4576,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="18"/>
     </row>
-    <row r="119" spans="2:20">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
@@ -4608,7 +4597,7 @@
       <c r="S119" s="18"/>
       <c r="T119" s="18"/>
     </row>
-    <row r="120" spans="2:20">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
@@ -4629,7 +4618,7 @@
       <c r="S120" s="18"/>
       <c r="T120" s="18"/>
     </row>
-    <row r="121" spans="2:20">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
@@ -4650,7 +4639,7 @@
       <c r="S121" s="18"/>
       <c r="T121" s="18"/>
     </row>
-    <row r="122" spans="2:20">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
@@ -4671,7 +4660,7 @@
       <c r="S122" s="18"/>
       <c r="T122" s="18"/>
     </row>
-    <row r="123" spans="2:20">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
@@ -4692,7 +4681,7 @@
       <c r="S123" s="18"/>
       <c r="T123" s="18"/>
     </row>
-    <row r="124" spans="2:20">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -4713,7 +4702,7 @@
       <c r="S124" s="18"/>
       <c r="T124" s="18"/>
     </row>
-    <row r="125" spans="2:20">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
@@ -4734,7 +4723,7 @@
       <c r="S125" s="18"/>
       <c r="T125" s="18"/>
     </row>
-    <row r="126" spans="2:20">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
@@ -4755,7 +4744,7 @@
       <c r="S126" s="18"/>
       <c r="T126" s="18"/>
     </row>
-    <row r="127" spans="2:20">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
@@ -4776,7 +4765,7 @@
       <c r="S127" s="18"/>
       <c r="T127" s="18"/>
     </row>
-    <row r="128" spans="2:20">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -4797,7 +4786,7 @@
       <c r="S128" s="18"/>
       <c r="T128" s="18"/>
     </row>
-    <row r="129" spans="2:20">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
@@ -4818,7 +4807,7 @@
       <c r="S129" s="18"/>
       <c r="T129" s="18"/>
     </row>
-    <row r="130" spans="2:20">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
@@ -4839,7 +4828,7 @@
       <c r="S130" s="18"/>
       <c r="T130" s="18"/>
     </row>
-    <row r="131" spans="2:20">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
@@ -4860,7 +4849,7 @@
       <c r="S131" s="18"/>
       <c r="T131" s="18"/>
     </row>
-    <row r="132" spans="2:20">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
@@ -4881,7 +4870,7 @@
       <c r="S132" s="18"/>
       <c r="T132" s="18"/>
     </row>
-    <row r="133" spans="2:20">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
@@ -4902,7 +4891,7 @@
       <c r="S133" s="18"/>
       <c r="T133" s="18"/>
     </row>
-    <row r="134" spans="2:20">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
@@ -4923,7 +4912,7 @@
       <c r="S134" s="18"/>
       <c r="T134" s="18"/>
     </row>
-    <row r="135" spans="2:20">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
@@ -4944,7 +4933,7 @@
       <c r="S135" s="18"/>
       <c r="T135" s="18"/>
     </row>
-    <row r="136" spans="2:20">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
@@ -4965,7 +4954,7 @@
       <c r="S136" s="18"/>
       <c r="T136" s="18"/>
     </row>
-    <row r="137" spans="2:20">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
@@ -4986,7 +4975,7 @@
       <c r="S137" s="18"/>
       <c r="T137" s="18"/>
     </row>
-    <row r="138" spans="2:20">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
@@ -5007,7 +4996,7 @@
       <c r="S138" s="18"/>
       <c r="T138" s="18"/>
     </row>
-    <row r="139" spans="2:20">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
@@ -5028,7 +5017,7 @@
       <c r="S139" s="18"/>
       <c r="T139" s="18"/>
     </row>
-    <row r="140" spans="2:20">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>

--- a/data_and_results/monthly data/2099.02.xlsx
+++ b/data_and_results/monthly data/2099.02.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA9C0E1-6B19-430D-9E58-1439A7AC8A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0" shapeId="0">
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -288,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -432,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0">
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -504,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -576,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -600,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -648,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -672,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -696,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -728,9 +735,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Jedzenie</t>
-  </si>
-  <si>
-    <t>Hobby i przyjemności</t>
   </si>
   <si>
     <t>Podróże</t>
@@ -801,11 +805,14 @@
   <si>
     <t>Stypendium</t>
   </si>
+  <si>
+    <t>Rozrywka</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1492,43 +1499,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30">
         <f>E1-A9</f>
         <v>1064</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="9">
         <f>SUM(F1:K1)</f>
@@ -1546,9 +1553,9 @@
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="31">
         <f>E2-A9</f>
@@ -1556,7 +1563,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -1589,15 +1596,15 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -1620,7 +1627,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="4"/>
@@ -1645,18 +1652,18 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1682,7 +1689,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
         <v>2014</v>
@@ -1722,7 +1729,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1738,9 +1745,9 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -1819,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
         <v>3201</v>
@@ -1901,48 +1908,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
@@ -1950,7 +1957,7 @@
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1994,7 +2001,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -2034,7 +2041,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -2068,7 +2075,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -2098,7 +2105,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>5</v>
       </c>
@@ -2124,7 +2131,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>6</v>
       </c>
@@ -2150,7 +2157,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>7</v>
       </c>
@@ -2176,7 +2183,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>8</v>
       </c>
@@ -2200,7 +2207,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>9</v>
       </c>
@@ -2224,7 +2231,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>10</v>
       </c>
@@ -2248,7 +2255,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>11</v>
       </c>
@@ -2272,7 +2279,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>12</v>
       </c>
@@ -2296,7 +2303,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>13</v>
       </c>
@@ -2320,7 +2327,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>14</v>
       </c>
@@ -2344,7 +2351,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>15</v>
       </c>
@@ -2368,7 +2375,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>16</v>
       </c>
@@ -2392,7 +2399,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>17</v>
       </c>
@@ -2416,7 +2423,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>18</v>
       </c>
@@ -2440,7 +2447,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>19</v>
       </c>
@@ -2464,7 +2471,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>20</v>
       </c>
@@ -2488,7 +2495,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>21</v>
       </c>
@@ -2512,7 +2519,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>22</v>
       </c>
@@ -2536,7 +2543,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>23</v>
       </c>
@@ -2560,7 +2567,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>24</v>
       </c>
@@ -2584,7 +2591,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>25</v>
       </c>
@@ -2608,7 +2615,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>26</v>
       </c>
@@ -2632,7 +2639,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>27</v>
       </c>
@@ -2656,7 +2663,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>28</v>
       </c>
@@ -2680,7 +2687,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>29</v>
       </c>
@@ -2704,7 +2711,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>30</v>
       </c>
@@ -2728,7 +2735,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>31</v>
       </c>
@@ -2752,7 +2759,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>32</v>
       </c>
@@ -2776,7 +2783,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>33</v>
       </c>
@@ -2800,7 +2807,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>34</v>
       </c>
@@ -2824,7 +2831,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>35</v>
       </c>
@@ -2848,7 +2855,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>36</v>
       </c>
@@ -2872,7 +2879,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>37</v>
       </c>
@@ -2896,7 +2903,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>38</v>
       </c>
@@ -2920,7 +2927,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>39</v>
       </c>
@@ -2944,7 +2951,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>40</v>
       </c>
@@ -2968,7 +2975,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>41</v>
       </c>
@@ -2992,7 +2999,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>42</v>
       </c>
@@ -3016,7 +3023,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>43</v>
       </c>
@@ -3040,7 +3047,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>44</v>
       </c>
@@ -3064,7 +3071,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>45</v>
       </c>
@@ -3088,7 +3095,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>46</v>
       </c>
@@ -3112,7 +3119,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>47</v>
       </c>
@@ -3136,7 +3143,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>48</v>
       </c>
@@ -3160,7 +3167,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>49</v>
       </c>
@@ -3184,7 +3191,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="18"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>50</v>
       </c>
@@ -3208,7 +3215,7 @@
       <c r="S60" s="18"/>
       <c r="T60" s="18"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>51</v>
       </c>
@@ -3232,7 +3239,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>52</v>
       </c>
@@ -3256,7 +3263,7 @@
       <c r="S62" s="18"/>
       <c r="T62" s="18"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>53</v>
       </c>
@@ -3280,7 +3287,7 @@
       <c r="S63" s="18"/>
       <c r="T63" s="18"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>54</v>
       </c>
@@ -3304,7 +3311,7 @@
       <c r="S64" s="18"/>
       <c r="T64" s="18"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>55</v>
       </c>
@@ -3328,7 +3335,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>56</v>
       </c>
@@ -3352,7 +3359,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="18"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>57</v>
       </c>
@@ -3376,7 +3383,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="18"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>58</v>
       </c>
@@ -3400,7 +3407,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="18"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>59</v>
       </c>
@@ -3424,7 +3431,7 @@
       <c r="S69" s="18"/>
       <c r="T69" s="18"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>60</v>
       </c>
@@ -3448,7 +3455,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="18"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>61</v>
       </c>
@@ -3472,7 +3479,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>62</v>
       </c>
@@ -3496,7 +3503,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="18"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>63</v>
       </c>
@@ -3520,7 +3527,7 @@
       <c r="S73" s="18"/>
       <c r="T73" s="18"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>64</v>
       </c>
@@ -3544,7 +3551,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="18"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>65</v>
       </c>
@@ -3568,7 +3575,7 @@
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>66</v>
       </c>
@@ -3592,7 +3599,7 @@
       <c r="S76" s="18"/>
       <c r="T76" s="18"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>67</v>
       </c>
@@ -3616,7 +3623,7 @@
       <c r="S77" s="18"/>
       <c r="T77" s="18"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>68</v>
       </c>
@@ -3640,7 +3647,7 @@
       <c r="S78" s="18"/>
       <c r="T78" s="18"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>69</v>
       </c>
@@ -3664,7 +3671,7 @@
       <c r="S79" s="18"/>
       <c r="T79" s="18"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>70</v>
       </c>
@@ -3688,7 +3695,7 @@
       <c r="S80" s="18"/>
       <c r="T80" s="18"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>71</v>
       </c>
@@ -3712,7 +3719,7 @@
       <c r="S81" s="18"/>
       <c r="T81" s="18"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>72</v>
       </c>
@@ -3736,7 +3743,7 @@
       <c r="S82" s="18"/>
       <c r="T82" s="18"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>73</v>
       </c>
@@ -3760,7 +3767,7 @@
       <c r="S83" s="18"/>
       <c r="T83" s="18"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>74</v>
       </c>
@@ -3784,7 +3791,7 @@
       <c r="S84" s="18"/>
       <c r="T84" s="18"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>75</v>
       </c>
@@ -3808,7 +3815,7 @@
       <c r="S85" s="18"/>
       <c r="T85" s="18"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>76</v>
       </c>
@@ -3832,7 +3839,7 @@
       <c r="S86" s="18"/>
       <c r="T86" s="18"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>77</v>
       </c>
@@ -3856,7 +3863,7 @@
       <c r="S87" s="18"/>
       <c r="T87" s="18"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>78</v>
       </c>
@@ -3880,7 +3887,7 @@
       <c r="S88" s="18"/>
       <c r="T88" s="18"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>79</v>
       </c>
@@ -3904,7 +3911,7 @@
       <c r="S89" s="18"/>
       <c r="T89" s="18"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>80</v>
       </c>
@@ -3928,7 +3935,7 @@
       <c r="S90" s="18"/>
       <c r="T90" s="18"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>81</v>
       </c>
@@ -3952,7 +3959,7 @@
       <c r="S91" s="18"/>
       <c r="T91" s="18"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>82</v>
       </c>
@@ -3976,7 +3983,7 @@
       <c r="S92" s="18"/>
       <c r="T92" s="18"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>83</v>
       </c>
@@ -4000,7 +4007,7 @@
       <c r="S93" s="18"/>
       <c r="T93" s="18"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>84</v>
       </c>
@@ -4024,7 +4031,7 @@
       <c r="S94" s="18"/>
       <c r="T94" s="18"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>85</v>
       </c>
@@ -4048,7 +4055,7 @@
       <c r="S95" s="18"/>
       <c r="T95" s="18"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>86</v>
       </c>
@@ -4072,7 +4079,7 @@
       <c r="S96" s="18"/>
       <c r="T96" s="18"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>87</v>
       </c>
@@ -4096,7 +4103,7 @@
       <c r="S97" s="18"/>
       <c r="T97" s="18"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>88</v>
       </c>
@@ -4120,7 +4127,7 @@
       <c r="S98" s="18"/>
       <c r="T98" s="18"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>89</v>
       </c>
@@ -4144,7 +4151,7 @@
       <c r="S99" s="18"/>
       <c r="T99" s="18"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>90</v>
       </c>
@@ -4168,7 +4175,7 @@
       <c r="S100" s="18"/>
       <c r="T100" s="18"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>91</v>
       </c>
@@ -4192,7 +4199,7 @@
       <c r="S101" s="18"/>
       <c r="T101" s="18"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>92</v>
       </c>
@@ -4216,7 +4223,7 @@
       <c r="S102" s="18"/>
       <c r="T102" s="18"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>93</v>
       </c>
@@ -4240,7 +4247,7 @@
       <c r="S103" s="18"/>
       <c r="T103" s="18"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>94</v>
       </c>
@@ -4264,7 +4271,7 @@
       <c r="S104" s="18"/>
       <c r="T104" s="18"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>95</v>
       </c>
@@ -4288,7 +4295,7 @@
       <c r="S105" s="18"/>
       <c r="T105" s="18"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>96</v>
       </c>
@@ -4312,7 +4319,7 @@
       <c r="S106" s="18"/>
       <c r="T106" s="18"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>97</v>
       </c>
@@ -4336,7 +4343,7 @@
       <c r="S107" s="18"/>
       <c r="T107" s="18"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>98</v>
       </c>
@@ -4360,7 +4367,7 @@
       <c r="S108" s="18"/>
       <c r="T108" s="18"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>99</v>
       </c>
@@ -4384,7 +4391,7 @@
       <c r="S109" s="18"/>
       <c r="T109" s="18"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>100</v>
       </c>
@@ -4408,7 +4415,7 @@
       <c r="S110" s="18"/>
       <c r="T110" s="18"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
@@ -4429,7 +4436,7 @@
       <c r="S111" s="18"/>
       <c r="T111" s="18"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
@@ -4450,7 +4457,7 @@
       <c r="S112" s="18"/>
       <c r="T112" s="18"/>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
@@ -4471,7 +4478,7 @@
       <c r="S113" s="18"/>
       <c r="T113" s="18"/>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -4492,7 +4499,7 @@
       <c r="S114" s="18"/>
       <c r="T114" s="18"/>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -4513,7 +4520,7 @@
       <c r="S115" s="18"/>
       <c r="T115" s="18"/>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
@@ -4534,7 +4541,7 @@
       <c r="S116" s="18"/>
       <c r="T116" s="18"/>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -4555,7 +4562,7 @@
       <c r="S117" s="18"/>
       <c r="T117" s="18"/>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
@@ -4576,7 +4583,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="18"/>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
@@ -4597,7 +4604,7 @@
       <c r="S119" s="18"/>
       <c r="T119" s="18"/>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
@@ -4618,7 +4625,7 @@
       <c r="S120" s="18"/>
       <c r="T120" s="18"/>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
@@ -4639,7 +4646,7 @@
       <c r="S121" s="18"/>
       <c r="T121" s="18"/>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
@@ -4660,7 +4667,7 @@
       <c r="S122" s="18"/>
       <c r="T122" s="18"/>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
@@ -4681,7 +4688,7 @@
       <c r="S123" s="18"/>
       <c r="T123" s="18"/>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -4702,7 +4709,7 @@
       <c r="S124" s="18"/>
       <c r="T124" s="18"/>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
@@ -4723,7 +4730,7 @@
       <c r="S125" s="18"/>
       <c r="T125" s="18"/>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
@@ -4744,7 +4751,7 @@
       <c r="S126" s="18"/>
       <c r="T126" s="18"/>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
@@ -4765,7 +4772,7 @@
       <c r="S127" s="18"/>
       <c r="T127" s="18"/>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -4786,7 +4793,7 @@
       <c r="S128" s="18"/>
       <c r="T128" s="18"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
@@ -4807,7 +4814,7 @@
       <c r="S129" s="18"/>
       <c r="T129" s="18"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
@@ -4828,7 +4835,7 @@
       <c r="S130" s="18"/>
       <c r="T130" s="18"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
@@ -4849,7 +4856,7 @@
       <c r="S131" s="18"/>
       <c r="T131" s="18"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
@@ -4870,7 +4877,7 @@
       <c r="S132" s="18"/>
       <c r="T132" s="18"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
@@ -4891,7 +4898,7 @@
       <c r="S133" s="18"/>
       <c r="T133" s="18"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
@@ -4912,7 +4919,7 @@
       <c r="S134" s="18"/>
       <c r="T134" s="18"/>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
@@ -4933,7 +4940,7 @@
       <c r="S135" s="18"/>
       <c r="T135" s="18"/>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
@@ -4954,7 +4961,7 @@
       <c r="S136" s="18"/>
       <c r="T136" s="18"/>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
@@ -4975,7 +4982,7 @@
       <c r="S137" s="18"/>
       <c r="T137" s="18"/>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
@@ -4996,7 +5003,7 @@
       <c r="S138" s="18"/>
       <c r="T138" s="18"/>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
@@ -5017,7 +5024,7 @@
       <c r="S139" s="18"/>
       <c r="T139" s="18"/>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
